--- a/data/trans_camb/P23_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 2,09</t>
+          <t>-6,21; 2,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 0,28</t>
+          <t>-8,79; -0,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,62; -1,58</t>
+          <t>-11,14; -1,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,41</t>
+          <t>-1,15; 4,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,52</t>
+          <t>-2,0; 3,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -0,36</t>
+          <t>-5,0; 0,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,29</t>
+          <t>-2,87; 2,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,97</t>
+          <t>-4,4; 0,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; -2,68</t>
+          <t>-7,62; -2,5</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 6,59</t>
+          <t>-17,18; 7,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 1,1</t>
+          <t>-24,16; -1,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,05; -4,71</t>
+          <t>-31,34; -5,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 36,71</t>
+          <t>-8,08; 38,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 29,31</t>
+          <t>-13,69; 30,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,04; -2,96</t>
+          <t>-35,0; 1,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 10,78</t>
+          <t>-12,01; 10,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 4,83</t>
+          <t>-18,8; 3,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,6; -12,59</t>
+          <t>-32,44; -11,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,37; -1,88</t>
+          <t>-8,62; -1,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -3,16</t>
+          <t>-9,82; -3,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,65; -15,39</t>
+          <t>-27,78; -15,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,38</t>
+          <t>-0,91; 5,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,89</t>
+          <t>-3,06; 2,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,61; -8,81</t>
+          <t>-18,71; -8,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,82</t>
+          <t>-4,02; 0,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,82; -1,04</t>
+          <t>-5,73; -1,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,89; -13,1</t>
+          <t>-20,7; -13,0</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,83; -4,41</t>
+          <t>-18,08; -4,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,52; -7,17</t>
+          <t>-20,73; -7,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,12; -34,33</t>
+          <t>-61,71; -34,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 17,08</t>
+          <t>-2,44; 16,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 9,13</t>
+          <t>-8,81; 8,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,26; -27,66</t>
+          <t>-53,72; -27,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 2,07</t>
+          <t>-9,95; 2,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,27; -2,77</t>
+          <t>-14,01; -2,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,11; -33,57</t>
+          <t>-51,93; -33,71</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 4,77</t>
+          <t>-7,0; 5,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,99; -3,09</t>
+          <t>-14,26; -2,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,6; -11,81</t>
+          <t>-22,69; -12,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 9,52</t>
+          <t>-3,65; 8,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 0,8</t>
+          <t>-9,77; 0,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,46; -5,3</t>
+          <t>-15,29; -5,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 5,13</t>
+          <t>-3,26; 4,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -2,98</t>
+          <t>-10,65; -2,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,88; -10,36</t>
+          <t>-17,77; -10,3</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 15,73</t>
+          <t>-19,12; 17,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,47; -9,84</t>
+          <t>-39,31; -8,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,53; -36,07</t>
+          <t>-62,72; -39,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 39,42</t>
+          <t>-12,11; 38,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,22; 3,33</t>
+          <t>-33,66; 2,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,32; -21,64</t>
+          <t>-51,0; -22,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 18,04</t>
+          <t>-10,02; 17,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,18; -10,64</t>
+          <t>-32,86; -9,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,01; -35,98</t>
+          <t>-54,63; -36,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,47; -0,66</t>
+          <t>-5,44; -0,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,61; -3,02</t>
+          <t>-7,52; -2,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-22,09; -12,79</t>
+          <t>-20,99; -12,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,75</t>
+          <t>0,32; 4,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,57</t>
+          <t>-0,55; 3,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,18; -4,54</t>
+          <t>-10,26; -4,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,34</t>
+          <t>-1,94; 1,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -0,31</t>
+          <t>-3,46; -0,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,11; -9,2</t>
+          <t>-14,0; -9,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -1,66</t>
+          <t>-13,28; -1,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,45; -7,74</t>
+          <t>-18,4; -7,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,37; -32,87</t>
+          <t>-52,02; -31,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,85; 20,2</t>
+          <t>1,19; 20,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 14,99</t>
+          <t>-2,12; 16,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-40,09; -19,47</t>
+          <t>-40,44; -18,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 4,25</t>
+          <t>-5,88; 4,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,33; -0,99</t>
+          <t>-10,47; -0,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,83; -29,22</t>
+          <t>-43,23; -28,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
